--- a/Sprint 2/Sprint Tracking/Burndown Chart - Sprint 2 - Planned and Actual.xlsx
+++ b/Sprint 2/Sprint Tracking/Burndown Chart - Sprint 2 - Planned and Actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stewart\Documents\UNIVERSITY\Third Year\Agile Computing Coursework 1\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A3A7D6-993A-4224-8276-3F3F32E3CBD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6AC7CD-67AC-47BB-AC0E-A931FF416BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5250" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planned Burndown Chart" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
   <si>
     <t>STORY POINTS</t>
   </si>
@@ -146,9 +146,6 @@
     <t>As a Principal Researcher, I should be able to view the results of my experiments. #59</t>
   </si>
   <si>
-    <t>Create A view</t>
-  </si>
-  <si>
     <t> Display all the questionnaires and which researcher they belong to</t>
   </si>
   <si>
@@ -228,6 +225,21 @@
   </si>
   <si>
     <t>Grab the answers from a participant’s response</t>
+  </si>
+  <si>
+    <t>Display all the questionnaires and which researcher they belong to</t>
+  </si>
+  <si>
+    <t>Create A procedure to fetch responses to a given questionnaire</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>the ability to do have an interface which operates this.</t>
+  </si>
+  <si>
+    <t>adding new logins</t>
   </si>
 </sst>
 </file>
@@ -1968,8 +1980,8 @@
   <dimension ref="B1:AB155"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L53" sqref="B9:L53"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2080,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -2278,7 +2290,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -2412,7 +2424,7 @@
     </row>
     <row r="13" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="7">
         <v>3</v>
@@ -2447,7 +2459,7 @@
     </row>
     <row r="14" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="7">
         <v>3</v>
@@ -2482,7 +2494,7 @@
     </row>
     <row r="15" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="7">
         <v>3</v>
@@ -2523,7 +2535,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -2943,7 +2955,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -2972,10 +2984,10 @@
     </row>
     <row r="29" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -2983,7 +2995,9 @@
       <c r="G29" s="7">
         <v>1</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -3007,7 +3021,7 @@
     </row>
     <row r="30" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
@@ -3016,10 +3030,10 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="7">
+      <c r="H30" s="7"/>
+      <c r="I30" s="7">
         <v>1</v>
       </c>
-      <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -3042,7 +3056,7 @@
     </row>
     <row r="31" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -3052,10 +3066,10 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="7">
+      <c r="I31" s="7"/>
+      <c r="J31" s="7">
         <v>1</v>
       </c>
-      <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="4"/>
@@ -3077,10 +3091,10 @@
     </row>
     <row r="32" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -3088,9 +3102,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="7">
-        <v>1</v>
-      </c>
+      <c r="J32" s="7"/>
       <c r="K32" s="7">
         <v>1</v>
       </c>
@@ -3114,13 +3126,13 @@
     </row>
     <row r="33" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="13">
         <v>2</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -3149,7 +3161,7 @@
     </row>
     <row r="34" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="7">
         <v>0.5</v>
@@ -3184,7 +3196,7 @@
     </row>
     <row r="35" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="7">
         <v>0.5</v>
@@ -3219,7 +3231,7 @@
     </row>
     <row r="36" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
@@ -3285,13 +3297,13 @@
     </row>
     <row r="38" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="13">
         <v>1</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
@@ -3320,7 +3332,7 @@
     </row>
     <row r="39" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="7">
         <v>0.33</v>
@@ -3355,7 +3367,7 @@
     </row>
     <row r="40" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="7">
         <v>0.33</v>
@@ -3390,7 +3402,7 @@
     </row>
     <row r="41" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="7">
         <v>0.33</v>
@@ -3454,13 +3466,13 @@
     </row>
     <row r="43" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="13">
         <v>2</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
@@ -3489,7 +3501,7 @@
     </row>
     <row r="44" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="7">
         <v>0.5</v>
@@ -3524,7 +3536,7 @@
     </row>
     <row r="45" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
@@ -3561,7 +3573,7 @@
     </row>
     <row r="46" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" s="7">
         <v>0.5</v>
@@ -3625,13 +3637,13 @@
     </row>
     <row r="48" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="13">
         <v>2</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
@@ -3660,7 +3672,7 @@
     </row>
     <row r="49" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -3695,7 +3707,7 @@
     </row>
     <row r="50" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" s="7">
         <v>1</v>
@@ -6731,9 +6743,9 @@
   </sheetPr>
   <dimension ref="B1:AB125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6844,7 +6856,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -6881,7 +6893,9 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <v>1.5</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -6914,7 +6928,9 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>1.5</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -6947,7 +6963,9 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>1.5</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -6972,7 +6990,7 @@
     </row>
     <row r="7" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
@@ -6980,7 +6998,9 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>1.5</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -7005,7 +7025,7 @@
     </row>
     <row r="8" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -7013,7 +7033,9 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>1.5</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -7038,7 +7060,7 @@
     </row>
     <row r="9" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7">
         <v>3</v>
@@ -7046,7 +7068,9 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>1.5</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -7077,7 +7101,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -7114,8 +7138,12 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.5</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -7147,8 +7175,12 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.5</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -7180,8 +7212,12 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.5</v>
+      </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -7205,7 +7241,7 @@
     </row>
     <row r="14" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -7247,7 +7283,9 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -7271,7 +7309,7 @@
     </row>
     <row r="16" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C16" s="7">
         <v>3</v>
@@ -7280,7 +7318,9 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -7309,7 +7349,9 @@
       <c r="C17" s="12">
         <v>2</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -7475,7 +7517,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -7504,17 +7546,17 @@
     </row>
     <row r="23" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7"/>
-      <c r="E23" s="7">
-        <v>1</v>
-      </c>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7">
+        <v>2</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -7539,7 +7581,7 @@
     </row>
     <row r="24" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
@@ -7547,7 +7589,9 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -7572,7 +7616,7 @@
     </row>
     <row r="25" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -7581,7 +7625,9 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -7605,16 +7651,18 @@
     </row>
     <row r="26" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -7638,13 +7686,13 @@
     </row>
     <row r="27" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="13">
         <v>2</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -7673,7 +7721,7 @@
     </row>
     <row r="28" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7">
         <v>0.5</v>
@@ -7706,7 +7754,7 @@
     </row>
     <row r="29" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="7">
         <v>0.5</v>
@@ -7739,7 +7787,7 @@
     </row>
     <row r="30" spans="2:28" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
@@ -7801,13 +7849,13 @@
     </row>
     <row r="32" spans="2:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="13">
         <v>1</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -7836,7 +7884,7 @@
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="7">
         <v>0.33</v>
@@ -7869,7 +7917,7 @@
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="7">
         <v>0.33</v>
@@ -7902,7 +7950,7 @@
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="7">
         <v>0.33</v>
@@ -7964,13 +8012,13 @@
     </row>
     <row r="37" spans="2:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="13">
         <v>2</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -7999,17 +8047,17 @@
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="7">
         <v>0.5</v>
       </c>
       <c r="D38" s="7"/>
-      <c r="E38" s="7">
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7">
         <v>0.5</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
@@ -8034,18 +8082,20 @@
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
       </c>
       <c r="D39" s="7"/>
-      <c r="E39" s="7">
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7">
         <v>0.5</v>
       </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="H39" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -8069,7 +8119,7 @@
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="7">
         <v>0.5</v>
@@ -8078,7 +8128,9 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="H40" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
@@ -8131,13 +8183,13 @@
     </row>
     <row r="42" spans="2:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="13">
         <v>2</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
@@ -8166,7 +8218,7 @@
     </row>
     <row r="43" spans="2:28" ht="27" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -8201,7 +8253,7 @@
     </row>
     <row r="44" spans="2:28" ht="27" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="7">
         <v>1</v>

--- a/Sprint 2/Sprint Tracking/Burndown Chart - Sprint 2 - Planned and Actual.xlsx
+++ b/Sprint 2/Sprint Tracking/Burndown Chart - Sprint 2 - Planned and Actual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stewart\Documents\UNIVERSITY\Third Year\Agile Computing Coursework 1\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6AC7CD-67AC-47BB-AC0E-A931FF416BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216AB43B-C5D5-4729-8AED-7626C40BF5EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5250" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,16 +419,16 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2003,29 +2003,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
@@ -2808,10 +2808,10 @@
       <c r="AB23" s="4"/>
     </row>
     <row r="24" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="15">
         <v>0.5</v>
       </c>
       <c r="D24" s="10"/>
@@ -6744,8 +6744,8 @@
   <dimension ref="B1:AB125"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6767,29 +6767,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
@@ -6896,8 +6896,12 @@
       <c r="G4" s="7">
         <v>1.5</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.5</v>
+      </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -6931,8 +6935,12 @@
       <c r="G5" s="7">
         <v>1.5</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.5</v>
+      </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -6966,8 +6974,12 @@
       <c r="G6" s="7">
         <v>1.5</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.5</v>
+      </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -7001,8 +7013,12 @@
       <c r="G7" s="7">
         <v>1.5</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.5</v>
+      </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -7036,8 +7052,12 @@
       <c r="G8" s="7">
         <v>1.5</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.5</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -7071,8 +7091,12 @@
       <c r="G9" s="7">
         <v>1.5</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.5</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -7378,10 +7402,10 @@
       <c r="AB17" s="4"/>
     </row>
     <row r="18" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="15">
         <v>0.5</v>
       </c>
       <c r="D18" s="10"/>
@@ -8091,12 +8115,14 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H39" s="7" t="s">
+        <v>0.33</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="I39" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
@@ -8128,10 +8154,12 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="I40" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>

--- a/Sprint 2/Sprint Tracking/Burndown Chart - Sprint 2 - Planned and Actual.xlsx
+++ b/Sprint 2/Sprint Tracking/Burndown Chart - Sprint 2 - Planned and Actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stewart\Documents\UNIVERSITY\Third Year\Agile Computing Coursework 1\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022AFE6B-5D8A-4970-B156-FDADE86D3EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCE72FB-00CC-443B-A4F1-E5AAADD306D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planned Burndown Chart" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Planned Burndown Chart'!$B$2:$V$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="70">
   <si>
     <t>STORY POINTS</t>
   </si>
@@ -493,7 +492,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="2400"/>
+              <a:rPr lang="en-GB"/>
               <a:t>Day to Day Planned Burndown Chart</a:t>
             </a:r>
           </a:p>
@@ -557,8 +556,78 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>'Planned Burndown Chart'!$F$59:$J$59</c:f>
@@ -591,13 +660,15 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="549805104"/>
         <c:axId val="549805760"/>
@@ -629,10 +700,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1800"/>
+                  <a:rPr lang="en-GB"/>
                   <a:t>Days</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -749,7 +819,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1800"/>
+                  <a:rPr lang="en-GB"/>
                   <a:t>Story Points</a:t>
                 </a:r>
               </a:p>
@@ -908,8 +978,25 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>SPRINT BURNDOWN</a:t>
+              <a:t>Actual</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Burndown Chart (Day to Day</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -934,9 +1021,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Sprint Burndown Chart</c:v>
-          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -965,15 +1049,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Actual Burndown Chart'!$F$21:$J$21</c:f>
+              <c:f>'Actual Burndown Chart'!$F$59:$J$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>11.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1123,7 +1216,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1231,11 +1324,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1246,11 +1334,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1282,9 +1365,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1648,10 +1728,10 @@
       <xdr:rowOff>49102</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>476252</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>217714</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>302559</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1686,13 +1766,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>431800</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>467591</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>311727</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2050,9 +2130,9 @@
   </sheetPr>
   <dimension ref="B1:AB165"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6992,9 +7072,9 @@
   </sheetPr>
   <dimension ref="B1:AB128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -7137,7 +7217,9 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7">
+        <v>0.33</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="4"/>
@@ -7169,7 +7251,9 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0.33</v>
+      </c>
       <c r="J5" s="7"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -7201,7 +7285,9 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="J6" s="7">
+        <v>0.33</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -7910,7 +7996,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>46</v>
@@ -8268,11 +8354,11 @@
         <v>0.5</v>
       </c>
       <c r="D38" s="7"/>
-      <c r="E38" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+      <c r="G38" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
@@ -8303,7 +8389,9 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="G39" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -8334,8 +8422,12 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="G40" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0.5</v>
+      </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="4"/>
@@ -8957,14 +9049,31 @@
       <c r="B59" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="5"/>
+      <c r="C59" s="5">
+        <v>43</v>
+      </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
+      <c r="F59" s="5">
+        <f>SUM(F4:F58)</f>
+        <v>11.91</v>
+      </c>
+      <c r="G59" s="5">
+        <f>SUM(G4:G58)</f>
+        <v>14.07</v>
+      </c>
+      <c r="H59" s="5">
+        <f>SUM(H4:H58)</f>
+        <v>11.74</v>
+      </c>
+      <c r="I59" s="5">
+        <f>SUM(I4:I58)</f>
+        <v>1.9100000000000001</v>
+      </c>
+      <c r="J59" s="5">
+        <f>SUM(J4:J58)</f>
+        <v>0.33</v>
+      </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
